--- a/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Result/PLEASE CHECK FILES EXTENSION.xlsx
+++ b/PROJECTS MACRO/MACRO_PROCESS - Report Aging PerGL PerBranch/RPA Preference/.Result/PLEASE CHECK FILES EXTENSION.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\MACRO_PROCESS - Report Aging PerGL PerBranch\RPA Preference\.Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACED712-8AEB-41AC-BEBE-0C556F54CAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A43AC8F-24FB-47FF-880C-A75C837E4036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BB32D73-3991-4F77-AA9A-299799BDC067}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{866372C7-4A0C-4905-988D-B84B65B5311E}"/>
   </bookViews>
   <sheets>
     <sheet name="CHECK - File Arus Barang" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0789F498-D62A-42C2-8194-4814570F234D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{3E3F07CF-3669-4289-BA9B-5CB4EEF5FED6}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Business Unit</t>
   </si>
@@ -82,121 +82,106 @@
     <t>INAC</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INAC.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INAC.xlsx</t>
   </si>
   <si>
     <t>INFA</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INFA.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INFA.xlsx</t>
   </si>
   <si>
     <t>INPA</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INPA.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INPA.xlsx</t>
   </si>
   <si>
     <t>ININ</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 ININ.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 ININ.xlsx</t>
   </si>
   <si>
     <t>INUM</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INUM.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INUM.xlsx</t>
   </si>
   <si>
     <t>INSP</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INSP.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INSP.xlsx</t>
   </si>
   <si>
     <t>INFO</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INFO.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INFO.xlsx</t>
   </si>
   <si>
     <t>INSA</t>
   </si>
   <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1201\12. 1201 LAB DEC 2024 INSA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INAC.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INFA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INPA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 ININ.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INUM.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INSP.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INFO.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1204\12. 1204 LAB DEC 2024 INSA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INAC.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INFA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INPA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 ININ.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INUM.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INSP.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INFO.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1205\12. 1205 LAB DEC 2024 INSA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INAC.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INFA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INPA.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 ININ.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INUM.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INSP.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INFO.xlsx</t>
-  </si>
-  <si>
-    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2024\ARUS BARANG\12.24\12.24.1206\12. 1206 LAB DEC 2024 INSA.xlsx</t>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1201\2. 1201 LAB FEB 2025 INSA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INAC.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INFA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INPA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 ININ.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INUM.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INSP.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INFO.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1204\2. 1204 LAB FEB 2025 INSA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INAC.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INFA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INPA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 ININ.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INUM.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INSP.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INFO.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1205\2. 1205 LAB FEB 2025 INSA.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1206\2. 1206 LAB FEB 2025 INFO.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1206\2. 1206 LAB FEB 2025 INSP.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.8.0.35\Bersama\santy\CLOSING bersama\TAHUN 2025\ARUS BARANG\02.25\02.25.1206\2. 1206 LAB FEB 2025 INUM.xlsx</t>
   </si>
 </sst>
 </file>
@@ -586,9 +571,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460B1304-ABE5-4EBA-9D0B-CAB2C78F251C}">
-  <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5833FC53-FD90-47BD-B8A9-4C7D7E93A7FE}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +580,7 @@
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +623,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +777,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,7 +805,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +819,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +833,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,7 +861,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,7 +903,7 @@
         <v>33</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,7 +917,7 @@
         <v>34</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +931,7 @@
         <v>35</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,7 +939,7 @@
         <v>1206</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
@@ -969,7 +953,7 @@
         <v>1206</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -983,82 +967,12 @@
         <v>1206</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1206</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1206</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1206</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1206</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="b">
         <v>0</v>
       </c>
     </row>
